--- a/Comparison/JSM2024/results/bias_matrix.xlsx
+++ b/Comparison/JSM2024/results/bias_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df5ed6e2797f344c/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.merck.com/personal/liubing8_merck_com/Documents/Documents/Github Repos/PSS---share/Comparison/JSM2024/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{09FE74DE-F6D9-48BA-B7B3-600E48D0A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84FC31C-12BC-487A-BBF2-CF38A3EA18A5}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{09FE74DE-F6D9-48BA-B7B3-600E48D0A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECBE807-02F8-4165-BC15-00BE09F95FB1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E50BC1F-9775-4B81-86CE-EA1F764FC031}"/>
+    <workbookView xWindow="57480" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{8E50BC1F-9775-4B81-86CE-EA1F764FC031}"/>
   </bookViews>
   <sheets>
     <sheet name="bias_1" sheetId="1" r:id="rId1"/>
@@ -1369,21 +1369,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FF6CAF-F6AA-4B42-BFE8-6A4ED19D86A2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="7" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1878,21 +1878,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A9047C-D87A-48AC-9150-6C6A80EF17F1}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="7" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
